--- a/Documentacion/Documentacion Testing.xlsx
+++ b/Documentacion/Documentacion Testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Operación</t>
   </si>
@@ -49,6 +49,93 @@
   </si>
   <si>
     <t>ejemplo</t>
+  </si>
+  <si>
+    <t>inicializarSistema</t>
+  </si>
+  <si>
+    <t>Inicializar sistema con una cantidad de puntos erronea</t>
+  </si>
+  <si>
+    <t>cantPuntos=0</t>
+  </si>
+  <si>
+    <t>Inicializar sistema con una cantidad de puntos valida</t>
+  </si>
+  <si>
+    <t>cantPuntos=3</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>destruirSistema</t>
+  </si>
+  <si>
+    <t>Eliminar el sistema y sus estructuras. Se inicializo el sistema previamente con cantPuntos=3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Registrar apicultor con formato de cedula invalido</t>
+  </si>
+  <si>
+    <t>TipoRetorno dominio.Sistema.registrarApicultor(String cedula, String nombre, String dirección, String email, String celular)</t>
+  </si>
+  <si>
+    <t>ERROR_1</t>
+  </si>
+  <si>
+    <t>Registrar apicultor con numero de celular invalido</t>
+  </si>
+  <si>
+    <t>ERROR_2</t>
+  </si>
+  <si>
+    <t>Registrar apicultor con email invalido</t>
+  </si>
+  <si>
+    <t>ERROR_3</t>
+  </si>
+  <si>
+    <t>Inicializar sistema despues de destruir una instancia del mismo.</t>
+  </si>
+  <si>
+    <t>3.468.908-7, unNombre, dir, email@mail.com, 901231456</t>
+  </si>
+  <si>
+    <t>ERROR_4</t>
+  </si>
+  <si>
+    <t>Registrar apicultor correctamente.</t>
+  </si>
+  <si>
+    <t>5.468.208-6, unNombre, dir, algo.com, 09978934</t>
+  </si>
+  <si>
+    <t>1.468.902-6, unNombre, dir, email@mail.com, 09978934</t>
+  </si>
+  <si>
+    <t>1.334.908-6, Mario, R. 11, email@mail.com, 099789341</t>
+  </si>
+  <si>
+    <t>3.434.908-6, unNombre, dir, @d.com, 095123412</t>
+  </si>
+  <si>
+    <t>Registrar apicultor duplicado. Ya se ingreso en el sistema un apicultor con cedula 1.334.908-6</t>
+  </si>
+  <si>
+    <t>1.24.567-8, unNombre, dir, email@mail.com, 099927834</t>
+  </si>
+  <si>
+    <t>123.515-7, unNombre, dir, email@mail.com, 097777890</t>
+  </si>
+  <si>
+    <t>1.702.51a-0, unNombre, dir, email@mail.com, 986987</t>
+  </si>
+  <si>
+    <t>567.515--7, unNombre, dir, email@mail.com, 12312</t>
   </si>
 </sst>
 </file>
@@ -98,10 +185,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,6 +211,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Open Declaration">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1724025" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,6 +577,11 @@
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -455,9 +619,232 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C18:C19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documentacion/Documentacion Testing.xlsx
+++ b/Documentacion/Documentacion Testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Operación</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Registrar apicultor con formato de cedula invalido</t>
-  </si>
-  <si>
-    <t>TipoRetorno dominio.Sistema.registrarApicultor(String cedula, String nombre, String dirección, String email, String celular)</t>
   </si>
   <si>
     <t>ERROR_1</t>
@@ -211,68 +208,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Open Declaration">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1724025" y="0"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,7 +500,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B10" sqref="B10:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,9 +513,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -630,10 +563,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -701,46 +634,46 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,27 +681,27 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -776,27 +709,27 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -804,16 +737,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -824,10 +757,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -844,7 +777,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documentacion/Documentacion Testing.xlsx
+++ b/Documentacion/Documentacion Testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
   <si>
     <t>Operación</t>
   </si>
@@ -36,21 +36,6 @@
     <t>registrarApicultor</t>
   </si>
   <si>
-    <t> Registro de apicultor con formato de celular erróneo</t>
-  </si>
-  <si>
-    <t>1.234.567-8, Juan Perez, 18 de Julio 1234, juan@gmail, 1234567</t>
-  </si>
-  <si>
-    <t>Error 2</t>
-  </si>
-  <si>
-    <t>Error 3</t>
-  </si>
-  <si>
-    <t>ejemplo</t>
-  </si>
-  <si>
     <t>inicializarSistema</t>
   </si>
   <si>
@@ -133,6 +118,99 @@
   </si>
   <si>
     <t>567.515--7, unNombre, dir, email@mail.com, 12312</t>
+  </si>
+  <si>
+    <t>registrarCiudad</t>
+  </si>
+  <si>
+    <t>Registrar una ciudad duplicada. Ya se ingreso una ciudad con las coordenadas -32.45, -54.12</t>
+  </si>
+  <si>
+    <t>Registrar una ciudad correctamente.</t>
+  </si>
+  <si>
+    <t>registrarApiario</t>
+  </si>
+  <si>
+    <t>Registrar una ciudad cuando ya se ingreso la cantidad de puntos maxima. Se inicializo el sistema con cantPuntos=3 y se registraron 3 puntos en el mapa.</t>
+  </si>
+  <si>
+    <t>Registrar un apiario cuando ya se ingreso la cantidad de puntos maxima. Se inicializo el sistema con cantPuntos=3 y se registraron 3 puntos en el mapa.</t>
+  </si>
+  <si>
+    <t>Registrar un apiario con capacidad&lt;=0.</t>
+  </si>
+  <si>
+    <t>Registrar un apiario duplicado. Ya se ingreso un punto en el mapa con las coordenadas -98.12, -28.13</t>
+  </si>
+  <si>
+    <t>Registrar un apiario para un apicultor que no se registro en el sistema.</t>
+  </si>
+  <si>
+    <t>Registrar un apiario correctamente. Ya se ingreso un apicultor con cedula=2.312.345-8</t>
+  </si>
+  <si>
+    <t>registrarCentro</t>
+  </si>
+  <si>
+    <t>Registrar un centro cuando ya se ingreso la cantidad de puntos maxima. Se inicializo el sistema con cantPuntos=3 y se registraron 3 puntos en el mapa.</t>
+  </si>
+  <si>
+    <t>Registrar un centro con capacidad&lt;=0.</t>
+  </si>
+  <si>
+    <t>Registrar un centro duplicado. Ya se ingreso un punto en el mapa con las coordenadas -12.12, -34.12</t>
+  </si>
+  <si>
+    <t>Registrar un centro correctamente.</t>
+  </si>
+  <si>
+    <t>registrarTramo</t>
+  </si>
+  <si>
+    <t>Registrar un tramo con peso &lt;=0.</t>
+  </si>
+  <si>
+    <t>Registrar un tramo que conecte coordenadas que no correspondan a ningun punto en el mapa.</t>
+  </si>
+  <si>
+    <t>Registrar un tramo duplicado (que conecte coordenadas que ya tienen un tramo entre si).</t>
+  </si>
+  <si>
+    <t>mapaEstado</t>
+  </si>
+  <si>
+    <t>Chequear que se arme un String acorde a las coordenadas ingresadas.</t>
+  </si>
+  <si>
+    <t>rutaACentroMasCercano</t>
+  </si>
+  <si>
+    <t>Obtener la ruta a partir de coordenadas que no corresponden a un apiario ingresado en el sistema.</t>
+  </si>
+  <si>
+    <t>Obtener la ruta a partir de coordenadas de un apiario registrado en el sistema, pero que no disponga de un centro en el que pueda extraerse los colmenares.</t>
+  </si>
+  <si>
+    <t>Obtener la ruta desde un apiario al centro mas cercano</t>
+  </si>
+  <si>
+    <t>listadoDeApiariosEnCiudad</t>
+  </si>
+  <si>
+    <t>Obtener los apiarios pertenecientes a la ciudad con coordenadas -12.23, -32.1, previamente ingresada en el sistema.</t>
+  </si>
+  <si>
+    <t>listadoDeCentros</t>
+  </si>
+  <si>
+    <t>Obtener los centros (coordX;coordY;capacidadOriginal;capacidadRemanente|…) ingresados en el sistema.</t>
+  </si>
+  <si>
+    <t>listadoApicultores</t>
+  </si>
+  <si>
+    <t>Obtener los apicultores ingresados en el sistema ordenados por cedula ascendente.</t>
   </si>
 </sst>
 </file>
@@ -156,21 +234,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,15 +250,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -195,6 +282,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,283 +609,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F20"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C18:C19"/>
+  <mergeCells count="19">
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentacion/Documentacion Testing.xlsx
+++ b/Documentacion/Documentacion Testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t>Operación</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Registrar una ciudad cuando ya se ingreso la cantidad de puntos maxima. Se inicializo el sistema con cantPuntos=3 y se registraron 3 puntos en el mapa.</t>
   </si>
   <si>
-    <t>Registrar un apiario cuando ya se ingreso la cantidad de puntos maxima. Se inicializo el sistema con cantPuntos=3 y se registraron 3 puntos en el mapa.</t>
-  </si>
-  <si>
     <t>Registrar un apiario con capacidad&lt;=0.</t>
   </si>
   <si>
@@ -210,7 +207,43 @@
     <t>listadoApicultores</t>
   </si>
   <si>
-    <t>Obtener los apicultores ingresados en el sistema ordenados por cedula ascendente.</t>
+    <t>Salto, -32.3, -54.9</t>
+  </si>
+  <si>
+    <t>Salto, -32.45, -54.12</t>
+  </si>
+  <si>
+    <t>Apiario A, -31.92, -55.1234, 2.312.432-5, 2</t>
+  </si>
+  <si>
+    <t>Registrar un apiario cuando ya se ingreso la cantidad de puntos maxima. Se inicializo el sistema con cantPuntos=3 y se registraron 3 puntos en el mapa. Se registro un apicultor con cedula 2.312.432-5.</t>
+  </si>
+  <si>
+    <t>Apiario A, -31.92, -55.1234, 2.312.432-5, -1</t>
+  </si>
+  <si>
+    <t>Apiario A, -98.12, -28.13, 2.312.432-5, 2</t>
+  </si>
+  <si>
+    <t>Apiario A, -98.12, -28.13, 3.123.321-4, 2</t>
+  </si>
+  <si>
+    <t>Apiario A, -31.92, -55.1234, 2.312.345-8, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtener los apicultores ingresados en el sistema ordenados por cedula ascendente. Apicultores ingresados: </t>
+  </si>
+  <si>
+    <t>1.231.345-2, Nombre1, dir1, mail1@mail.com, 098763432</t>
+  </si>
+  <si>
+    <t>1.311.345-2, Nombre3, dir3, mail3@mail.com, 098263432</t>
+  </si>
+  <si>
+    <t>2.121.345-2, Nombre2, dir2, mail2@mail.com, 096713432</t>
+  </si>
+  <si>
+    <t>1.231.345-2;Nombre1;098763432|2.121.345-2;Nombre3;098263432|2.121.345-2;Nombre2;096713432|</t>
   </si>
 </sst>
 </file>
@@ -272,23 +305,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -297,16 +335,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,36 +670,36 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -682,7 +724,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
@@ -696,46 +738,46 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -832,7 +874,7 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
@@ -846,7 +888,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -866,43 +908,48 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -910,10 +957,10 @@
       <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -922,6 +969,9 @@
       <c r="B25" t="s">
         <v>36</v>
       </c>
+      <c r="C25" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
@@ -930,373 +980,411 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="B26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
         <v>47</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
         <v>20</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
         <v>18</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="5" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="B57" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="B60" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
+      <c r="B63" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
